--- a/Tests/Test Plan.xlsx
+++ b/Tests/Test Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E586787B-EF41-4007-B548-F945069D3859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B30BFFC-C688-4112-B4D0-A2E8F5164325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34665" yWindow="2385" windowWidth="21600" windowHeight="11295" xr2:uid="{9C03279D-E1E5-4702-873C-CF40DB17D976}"/>
+    <workbookView xWindow="30315" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{9C03279D-E1E5-4702-873C-CF40DB17D976}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>#</t>
   </si>
@@ -43,6 +43,36 @@
   </si>
   <si>
     <t>28/11/2022</t>
+  </si>
+  <si>
+    <t>184892::20</t>
+  </si>
+  <si>
+    <t>184592::60</t>
+  </si>
+  <si>
+    <t>189492::40</t>
+  </si>
+  <si>
+    <t>174592::90</t>
+  </si>
+  <si>
+    <t>184572::10</t>
+  </si>
+  <si>
+    <t>184592::30</t>
+  </si>
+  <si>
+    <t>188192::70</t>
+  </si>
+  <si>
+    <t>181392::50</t>
+  </si>
+  <si>
+    <t>184792::40</t>
+  </si>
+  <si>
+    <t>184372::20</t>
   </si>
 </sst>
 </file>
@@ -404,7 +434,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +475,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>800</v>
@@ -459,7 +489,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>725</v>
@@ -473,7 +503,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>800</v>
@@ -487,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>800</v>
@@ -501,7 +531,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -515,7 +545,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>800</v>
@@ -529,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>775</v>
@@ -543,7 +573,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>775</v>
@@ -557,7 +587,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>700</v>
@@ -571,7 +601,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>800</v>
